--- a/4_Niveau.xlsx
+++ b/4_Niveau.xlsx
@@ -217,9 +217,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-  </numFmts>
   <fonts count="5">
     <font>
       <sz val="10.0"/>
@@ -359,22 +356,22 @@
     <xf borderId="2" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1351,16 +1348,17 @@
       <c r="B32" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="11">
         <f>ROUND(AVERAGE('Form Responses 1'!$D32:$G32),1)</f>
         <v>2</v>
       </c>
-      <c r="D32" s="18">
-        <v>2.0</v>
-      </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
+      <c r="D32" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="18"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="C33" s="19"/>

--- a/4_Niveau.xlsx
+++ b/4_Niveau.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mon Drive\jean-tri\sport\roundnet\matchmaking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E213FE6F-3109-4123-A11E-1025E6F6A5C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1511DB1B-40FA-4640-96F4-FA9428289F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="66">
   <si>
     <t>Nom</t>
   </si>
@@ -228,6 +228,15 @@
   </si>
   <si>
     <t>Félix</t>
+  </si>
+  <si>
+    <t>Florian2</t>
+  </si>
+  <si>
+    <t>Florian1</t>
+  </si>
+  <si>
+    <t>nosé</t>
   </si>
 </sst>
 </file>
@@ -429,7 +438,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:G31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A1:G33">
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Nom"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Prénom"/>
@@ -647,8 +656,8 @@
   <dimension ref="A1:L995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1020,10 +1029,10 @@
       </c>
       <c r="C17" s="4">
         <f>ROUND(AVERAGE('Form Responses 1'!$D17:$G17),1)</f>
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="D17" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E17" s="5">
         <v>3</v>
@@ -1326,118 +1335,140 @@
       <c r="G31" s="17"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+      <c r="A32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="4">
+        <f>ROUND(AVERAGE('Form Responses 1'!$D32:$G32),1)</f>
+        <v>2</v>
+      </c>
+      <c r="D32" s="15">
+        <v>2</v>
+      </c>
       <c r="E32" s="15"/>
       <c r="F32" s="15"/>
       <c r="G32" s="15"/>
     </row>
-    <row r="33" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
+    <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="4">
+        <f>ROUND(AVERAGE('Form Responses 1'!$D33:$G33),1)</f>
+        <v>1.5</v>
+      </c>
+      <c r="D33" s="15">
+        <v>1.5</v>
+      </c>
       <c r="E33" s="15"/>
       <c r="F33" s="15"/>
       <c r="G33" s="15"/>
     </row>
-    <row r="34" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
       <c r="G34" s="15"/>
     </row>
-    <row r="35" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
       <c r="E35" s="15"/>
       <c r="F35" s="15"/>
       <c r="G35" s="15"/>
     </row>
-    <row r="36" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
       <c r="G36" s="15"/>
     </row>
-    <row r="37" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15"/>
       <c r="F37" s="15"/>
       <c r="G37" s="15"/>
     </row>
-    <row r="38" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
       <c r="G38" s="15"/>
     </row>
-    <row r="39" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
       <c r="E39" s="15"/>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
     </row>
-    <row r="40" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
       <c r="G40" s="15"/>
     </row>
-    <row r="41" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C41" s="15"/>
       <c r="D41" s="15"/>
       <c r="E41" s="15"/>
       <c r="F41" s="15"/>
       <c r="G41" s="15"/>
     </row>
-    <row r="42" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C42" s="15"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
       <c r="G42" s="15"/>
     </row>
-    <row r="43" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
       <c r="E43" s="15"/>
       <c r="F43" s="15"/>
       <c r="G43" s="15"/>
     </row>
-    <row r="44" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C44" s="15"/>
       <c r="D44" s="15"/>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
     </row>
-    <row r="46" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C46" s="15"/>
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
       <c r="G46" s="15"/>
     </row>
-    <row r="47" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
     </row>
-    <row r="48" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15"/>
